--- a/src/main/resources/org/olat/ims/qti21/questionimport/qti-import-metadata.xlsx
+++ b/src/main/resources/org/olat/ims/qti21/questionimport/qti-import-metadata.xlsx
@@ -1,16 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/srosse/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265AB374-8265-224D-A237-D00BA17AFCBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8400" yWindow="0" windowWidth="36080" windowHeight="30860" tabRatio="500"/>
+    <workbookView xWindow="5080" yWindow="460" windowWidth="28320" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Import" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="137">
   <si>
     <t>Typ</t>
   </si>
@@ -33,9 +42,6 @@
     <t xml:space="preserve">Wird in Navigation angezeigt. Entspricht dem Thema der Frage. </t>
   </si>
   <si>
-    <t>Optionale Beschreibung / Einführungstext der zwischen dem Titel und dem eigentlichen Lückentext erscheint. Worum geht es in diesem Frageitem?</t>
-  </si>
-  <si>
     <t>Die maximal zu erreichende Punktzahl</t>
   </si>
   <si>
@@ -78,12 +84,6 @@
     <t>Fussball: Austragungsort</t>
   </si>
   <si>
-    <t>Die Fussball WM wird alle vier Jahre von einem anderen Land ausgerichtet.</t>
-  </si>
-  <si>
-    <t>Optionale Beschreibung / Einführungstext der zwischen dem Titel und der eigentlichen Frage erscheint. Worum geht es in dieser Frage?</t>
-  </si>
-  <si>
     <t>In welchen Ländern wurde zwischen dem Jahr 2000 und 2015 eine Fussball Weltmeisterschaft ausgetragen?</t>
   </si>
   <si>
@@ -147,9 +147,6 @@
     <t>Fussball: Gewinner</t>
   </si>
   <si>
-    <t>Im Jahr 1982 wurde die WM in Spanien ausgetragen.</t>
-  </si>
-  <si>
     <t>Spanien</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>Editor Version</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -216,9 +210,6 @@
     <t>Points</t>
   </si>
   <si>
-    <t>Eine lange Beschreibung</t>
-  </si>
-  <si>
     <t>Englisch Wortschatz</t>
   </si>
   <si>
@@ -330,19 +321,130 @@
     <t>Fussball: Weltmeister</t>
   </si>
   <si>
-    <t>Prüfen Sie die Weltmeiser kennen</t>
-  </si>
-  <si>
     <t>Uruguay</t>
   </si>
   <si>
     <t>Die folgenden Länder haben die Fussball Weltmeistertitel bereits mehr als einmal gewonnen.</t>
+  </si>
+  <si>
+    <t>Information: alle optionalen Felder aus dem Type FIB können auch bei den anderen Fragetypen hinzugefügt werden. Fügen Sie dazu unter Titel die entsprechenden Zeilen ein.</t>
+  </si>
+  <si>
+    <t>Hint</t>
+  </si>
+  <si>
+    <t>Correct solution</t>
+  </si>
+  <si>
+    <t>Antworten Januar und Februar sind korrekt</t>
+  </si>
+  <si>
+    <t>Denken Sie an die Theorie von Max Mustermann.</t>
+  </si>
+  <si>
+    <t>ESSAY</t>
+  </si>
+  <si>
+    <t>Fussball: Spieler</t>
+  </si>
+  <si>
+    <t>Wer ist der beste Spieler aller Zeit?</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>MATRIX</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>Bern</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Hauptstädte Europas</t>
+  </si>
+  <si>
+    <t>Drag&amp;drop</t>
+  </si>
+  <si>
+    <t>Hauptstädte Afrika</t>
+  </si>
+  <si>
+    <t>Algerien</t>
+  </si>
+  <si>
+    <t>Algier</t>
+  </si>
+  <si>
+    <t>Kenia</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nairobi</t>
+  </si>
+  <si>
+    <t>Windhoek</t>
+  </si>
+  <si>
+    <t>Truefalse</t>
+  </si>
+  <si>
+    <t>Hauptstädte Europa</t>
+  </si>
+  <si>
+    <t>Unanswered</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>Paris ist in Frankreich</t>
+  </si>
+  <si>
+    <t>Bern ist in Schweiz</t>
+  </si>
+  <si>
+    <t>Stockholm ist in Danemark</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Grundwortschatz</t>
+  </si>
+  <si>
+    <t>Optional, nur in Fragenpool : Thema</t>
+  </si>
+  <si>
+    <t>Max answers</t>
+  </si>
+  <si>
+    <t>Min answers</t>
+  </si>
+  <si>
+    <t>Max. Anzahl möglicher Antworten</t>
+  </si>
+  <si>
+    <t>Min. Anzahl möglicher Antworten</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -506,7 +608,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -544,52 +646,63 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="41">
-    <cellStyle name="Ausgabe" xfId="16" builtinId="21"/>
-    <cellStyle name="Besuchter Link" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Erklärender Text" xfId="1" builtinId="53"/>
-    <cellStyle name="Link" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Sortie" xfId="16" builtinId="21"/>
+    <cellStyle name="Texte explicatif" xfId="1" builtinId="53"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -914,14 +1027,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:B54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="33" style="1" customWidth="1"/>
@@ -930,794 +1043,1117 @@
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>66</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="8"/>
+        <v>130</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>131</v>
+      </c>
       <c r="C7" s="7"/>
       <c r="D7" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>68</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B9" s="8"/>
       <c r="C9" s="7"/>
       <c r="D9" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="30">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>63</v>
+      </c>
       <c r="C12" s="7"/>
       <c r="D12" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="8">
-        <v>0.55000000000000004</v>
+        <v>49</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="8">
-        <v>0.6</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="B14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B15" s="8">
-        <v>-0.33</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B16" s="8">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>72</v>
+        <v>53</v>
+      </c>
+      <c r="B17" s="8">
+        <v>-0.33</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>94</v>
+        <v>54</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="45">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>73</v>
+        <v>100</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>7</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30">
-      <c r="A23" s="5">
-        <v>1</v>
-      </c>
-      <c r="B23" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>9</v>
-      </c>
+    </row>
+    <row r="23" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="7"/>
       <c r="D23" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="45">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="7"/>
       <c r="D24" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="7">
+        <v>1</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="5" t="s">
-        <v>62</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A27" s="5">
+        <v>1</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="7">
+        <v>84</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" s="7">
         <v>5</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="4"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="5">
-        <v>1</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="5">
-        <v>1</v>
-      </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7" t="s">
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="5">
+        <v>1</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="4"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="7" t="s">
+      <c r="C35" s="7"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="5">
+        <v>1</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="5">
-        <v>1</v>
-      </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" s="7" t="s">
+      <c r="C39" s="7"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="10"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B41" s="10"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="B37" s="10"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="B38" s="10"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="11" t="s">
+      <c r="D43" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="7">
+        <v>4</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B46" s="7">
+        <v>2</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="7">
+        <v>3</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A48" s="5">
+        <v>1</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A49" s="5">
+        <v>1</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A50" s="5">
+        <v>1</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A51" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A54" s="5">
+        <v>-1</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="B55" s="10"/>
+      <c r="D55" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B56" s="10"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B57" s="10"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D39" s="12" t="s">
+    </row>
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="4" t="s">
+      <c r="D59" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="30">
-      <c r="A41" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B41" s="8" t="s">
+    <row r="60" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="4" t="s">
+    </row>
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B61" s="7">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A62" s="5">
+        <v>0</v>
+      </c>
+      <c r="B62" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="45">
-      <c r="A42" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D42" s="4" t="s">
+      <c r="D62" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A63" s="5">
+        <v>0</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B43" s="7">
+      <c r="D63" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A64" s="5">
+        <v>0</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A65" s="5">
+        <v>0</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A66" s="5">
+        <v>1</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A67" s="5">
+        <v>0</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A68" s="5">
+        <v>0</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="D69" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="5">
-        <v>1</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="4" t="s">
+    </row>
+    <row r="73" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B74" s="7">
+        <v>1</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B84" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B85" s="7">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" s="7">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B92" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A93" s="5"/>
+      <c r="B93" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D93" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="5">
-        <v>1</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="5">
-        <v>1</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="5">
-        <v>-1</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="30">
-      <c r="B51" s="10"/>
-      <c r="D51" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="B52" s="10"/>
-      <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="B53" s="10"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="30">
-      <c r="A56" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="30">
-      <c r="A57" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="7">
-        <v>1</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="5">
-        <v>0</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="5">
-        <v>0</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="5">
-        <v>0</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="5">
-        <v>0</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="5">
-        <v>1</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="5">
-        <v>0</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="5">
-        <v>0</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="30">
-      <c r="D66" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="30">
-      <c r="A70" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="45">
-      <c r="A71" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B72" s="7">
-        <v>1</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>101</v>
+    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" s="7">
+        <v>1</v>
+      </c>
+      <c r="C94" s="7">
+        <v>0</v>
+      </c>
+      <c r="D94" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" s="7">
+        <v>0</v>
+      </c>
+      <c r="C95" s="7">
+        <v>0</v>
+      </c>
+      <c r="D95" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" s="7">
+        <v>0</v>
+      </c>
+      <c r="C96" s="7">
+        <v>1</v>
+      </c>
+      <c r="D96" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B102" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A103" s="5"/>
+      <c r="B103" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C103" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" s="7">
+        <v>0</v>
+      </c>
+      <c r="C104" s="7">
+        <v>1</v>
+      </c>
+      <c r="D104" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" s="7">
+        <v>0</v>
+      </c>
+      <c r="C105" s="7">
+        <v>0</v>
+      </c>
+      <c r="D105" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B106" s="7">
+        <v>1</v>
+      </c>
+      <c r="C106" s="7">
+        <v>0</v>
+      </c>
+      <c r="D106" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B112" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A113" s="5"/>
+      <c r="B113" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B114" s="7">
+        <v>0</v>
+      </c>
+      <c r="C114" s="7">
+        <v>1</v>
+      </c>
+      <c r="D114" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B115" s="7">
+        <v>0</v>
+      </c>
+      <c r="C115" s="7">
+        <v>1</v>
+      </c>
+      <c r="D115" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B116" s="7">
+        <v>0</v>
+      </c>
+      <c r="C116" s="7">
+        <v>0</v>
+      </c>
+      <c r="D116" s="7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:D3"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>